--- a/data/sumario_1.xlsx
+++ b/data/sumario_1.xlsx
@@ -1,250 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a1c4728a6baa2a1/Documentos/GitHub/complexidade_terminologica/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_B09A103000B9E9A1EC8737FA5F3D01F9D21F203D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3483A56-3367-46F8-B0D0-2F6202CD9F94}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="6740" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
-  <si>
-    <t xml:space="preserve">cod_origem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prop Quarto Nível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prop Quinto Nível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Média</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desvio Padrão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mínimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máximo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeiro quartil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terceiro quartil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa e Equivalentes de Caixa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplicações Financeiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contas a Receber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estoques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ativos Biológicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tributos a Recuperar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despesas Antecipadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros Ativos Circulantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ativo Realizável a Longo Prazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imobilizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intangível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obrigações Sociais e Trabalhistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornecedores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obrigações Fiscais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empréstimos e Financiamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outras Obrigações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provisões</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tributos Diferidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucros e Receitas a Apropriar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Social Realizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservas de Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservas de Reavaliação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservas de Lucros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajustes de Avaliação Patrimonial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajustes Acumulados de Conversão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros Resultados Abrangentes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+  <si>
+    <t>cod_origem</t>
+  </si>
+  <si>
+    <t>origem</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Prop Quarto Nível</t>
+  </si>
+  <si>
+    <t>Prop Quinto Nível</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Primeiro quartil</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Terceiro quartil</t>
+  </si>
+  <si>
+    <t>1.01.01</t>
+  </si>
+  <si>
+    <t>Caixa e Equivalentes de Caixa</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>1.01.02</t>
+  </si>
+  <si>
+    <t>Aplicações Financeiras</t>
+  </si>
+  <si>
+    <t>1.01.03</t>
+  </si>
+  <si>
+    <t>Contas a Receber</t>
+  </si>
+  <si>
+    <t>1.01.04</t>
+  </si>
+  <si>
+    <t>Estoques</t>
+  </si>
+  <si>
+    <t>1.01.05</t>
+  </si>
+  <si>
+    <t>Ativos Biológicos</t>
+  </si>
+  <si>
+    <t>1.01.06</t>
+  </si>
+  <si>
+    <t>Tributos a Recuperar</t>
+  </si>
+  <si>
+    <t>1.01.07</t>
+  </si>
+  <si>
+    <t>Despesas Antecipadas</t>
+  </si>
+  <si>
+    <t>1.01.08</t>
+  </si>
+  <si>
+    <t>Outros Ativos Circulantes</t>
+  </si>
+  <si>
+    <t>1.02.01</t>
+  </si>
+  <si>
+    <t>Ativo Realizável a Longo Prazo</t>
+  </si>
+  <si>
+    <t>1.02.02</t>
+  </si>
+  <si>
+    <t>Investimentos</t>
+  </si>
+  <si>
+    <t>1.02.03</t>
+  </si>
+  <si>
+    <t>Imobilizado</t>
+  </si>
+  <si>
+    <t>1.02.04</t>
+  </si>
+  <si>
+    <t>Intangível</t>
+  </si>
+  <si>
+    <t>2.01.01</t>
+  </si>
+  <si>
+    <t>Obrigações Sociais e Trabalhistas</t>
+  </si>
+  <si>
+    <t>passivo</t>
+  </si>
+  <si>
+    <t>2.01.02</t>
+  </si>
+  <si>
+    <t>Fornecedores</t>
+  </si>
+  <si>
+    <t>2.01.03</t>
+  </si>
+  <si>
+    <t>Obrigações Fiscais</t>
+  </si>
+  <si>
+    <t>2.01.04</t>
+  </si>
+  <si>
+    <t>Empréstimos e Financiamentos</t>
+  </si>
+  <si>
+    <t>2.01.05</t>
+  </si>
+  <si>
+    <t>Outras Obrigações</t>
+  </si>
+  <si>
+    <t>2.01.06</t>
+  </si>
+  <si>
+    <t>Provisões</t>
+  </si>
+  <si>
+    <t>2.01.07</t>
+  </si>
+  <si>
+    <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
+  </si>
+  <si>
+    <t>2.02.01</t>
+  </si>
+  <si>
+    <t>2.02.02</t>
+  </si>
+  <si>
+    <t>2.02.03</t>
+  </si>
+  <si>
+    <t>Tributos Diferidos</t>
+  </si>
+  <si>
+    <t>2.02.04</t>
+  </si>
+  <si>
+    <t>2.02.05</t>
+  </si>
+  <si>
+    <t>2.02.06</t>
+  </si>
+  <si>
+    <t>Lucros e Receitas a Apropriar</t>
+  </si>
+  <si>
+    <t>2.03.01</t>
+  </si>
+  <si>
+    <t>Capital Social Realizado</t>
+  </si>
+  <si>
+    <t>2.03.02</t>
+  </si>
+  <si>
+    <t>Reservas de Capital</t>
+  </si>
+  <si>
+    <t>2.03.03</t>
+  </si>
+  <si>
+    <t>Reservas de Reavaliação</t>
+  </si>
+  <si>
+    <t>2.03.04</t>
+  </si>
+  <si>
+    <t>Reservas de Lucros</t>
+  </si>
+  <si>
+    <t>2.03.06</t>
+  </si>
+  <si>
+    <t>Ajustes de Avaliação Patrimonial</t>
+  </si>
+  <si>
+    <t>2.03.07</t>
+  </si>
+  <si>
+    <t>Ajustes Acumulados de Conversão</t>
+  </si>
+  <si>
+    <t>2.03.08</t>
+  </si>
+  <si>
+    <t>Outros Resultados Abrangentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -280,6 +287,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,14 +577,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -619,38 +640,38 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>13.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>10.1159939369957</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>22</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>6.5</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>15</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -660,38 +681,38 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.214285714285714</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="G3">
         <v>8.21428571428571</v>
       </c>
-      <c r="H3" t="n">
-        <v>16.2773016636834</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3">
+        <v>16.277301663683399</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>61</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>4.75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -701,38 +722,38 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0869565217391304</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.91304347826087</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>8.6956521739130405E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="G4">
         <v>14.5652173913043</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>20.9692980915097</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>64</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -742,38 +763,38 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>9.09090909090909</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.17868626925554</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="G5">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="H5">
+        <v>8.1786862692555395</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>26</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>3.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -783,36 +804,35 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -822,38 +842,38 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11.9090909090909</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22.4073851462171</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="E7">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G7">
+        <v>11.909090909090899</v>
+      </c>
+      <c r="H7">
+        <v>22.407385146217099</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>59</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -863,38 +883,38 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>11.3333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>11.060440015358</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8">
+        <v>11.060440015357999</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>23</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>5.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>10</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -904,38 +924,38 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>27</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.111111111111111</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="G9" t="n">
-        <v>29.037037037037</v>
-      </c>
-      <c r="H9" t="n">
-        <v>45.3706796896253</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="E9">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F9">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G9">
+        <v>29.037037037036999</v>
+      </c>
+      <c r="H9">
+        <v>45.370679689625298</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>151</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>36.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -945,38 +965,38 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>66</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.151515151515152</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.848484848484849</v>
-      </c>
-      <c r="G10" t="n">
-        <v>19.5606060606061</v>
-      </c>
-      <c r="H10" t="n">
-        <v>39.3599283879425</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="E10">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F10">
+        <v>0.84848484848484895</v>
+      </c>
+      <c r="G10">
+        <v>19.560606060606101</v>
+      </c>
+      <c r="H10">
+        <v>39.359928387942503</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>167</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -986,38 +1006,38 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.25</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.75</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>6.6975475255606</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11">
+        <v>6.6975475255605996</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>2.25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1027,38 +1047,38 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>18</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6.55555555555556</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6.67058708256955</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="E12">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G12">
+        <v>6.5555555555555598</v>
+      </c>
+      <c r="H12">
+        <v>6.6705870825695497</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>22</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1068,38 +1088,38 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>27</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.0740740740740741</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.925925925925926</v>
-      </c>
-      <c r="G13" t="n">
-        <v>8.66666666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>18.8964791185269</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="E13">
+        <v>7.4074074074074098E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.92592592592592604</v>
+      </c>
+      <c r="G13">
+        <v>8.6666666666666696</v>
+      </c>
+      <c r="H13">
+        <v>18.896479118526901</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>81</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1109,38 +1129,38 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.181818181818182</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10.5454545454545</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="E14">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F14">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G14">
+        <v>10.545454545454501</v>
+      </c>
+      <c r="H14">
         <v>14.5764442602689</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>1.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>11.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1150,38 +1170,38 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.153846153846154</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.4615384615385</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="E15">
+        <v>0.15384615384615399</v>
+      </c>
+      <c r="F15">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="G15">
+        <v>11.461538461538501</v>
+      </c>
+      <c r="H15">
         <v>17.5433528941657</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>59</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1191,38 +1211,38 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.15</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.85</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>20.95</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>39.3131489989104</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>161</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>1.75</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>4.5</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1232,38 +1252,38 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.272727272727273</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.09090909090909</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8.99393735195599</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="E17">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="F17">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G17">
+        <v>7.0909090909090899</v>
+      </c>
+      <c r="H17">
+        <v>8.9939373519559904</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1273,38 +1293,38 @@
       <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>25</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.08</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.92</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>56.92</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>86.9961301821332</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>259</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>8</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1314,38 +1334,38 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.9</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>11.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>23.4666616826151</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H19">
+        <v>23.466661682615101</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>97</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>6.75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1355,38 +1375,38 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.5</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="H20" t="n">
-        <v>5.65685424949238</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="H20">
+        <v>5.6568542494923797</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>13</v>
       </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1396,38 +1416,38 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>11</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.272727272727273</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.09090909090909</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="E21">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="F21">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G21">
+        <v>7.0909090909090899</v>
+      </c>
+      <c r="H21">
         <v>10.8300927554158</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>36</v>
       </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1437,38 +1457,38 @@
       <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>24</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="E22">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="G22">
         <v>59.7916666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>88.6115014453868</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H22">
+        <v>88.611501445386807</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>250</v>
       </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>6</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>97</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1478,38 +1498,38 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.25</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.75</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>15.75</v>
       </c>
-      <c r="H23" t="n">
-        <v>16.111590031196</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="H23">
+        <v>16.111590031195998</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>35</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>3.25</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>13.5</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1519,38 +1539,38 @@
       <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>28</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.928571428571429</v>
-      </c>
-      <c r="G24" t="n">
-        <v>16.5714285714286</v>
-      </c>
-      <c r="H24" t="n">
-        <v>34.4506394838552</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="E24">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.92857142857142905</v>
+      </c>
+      <c r="G24">
+        <v>16.571428571428601</v>
+      </c>
+      <c r="H24">
+        <v>34.450639483855198</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>145</v>
       </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>10.75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1560,38 +1580,38 @@
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.4</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.6</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.68328157299975</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="G25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H25">
+        <v>2.6832815729997499</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>7</v>
       </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1601,38 +1621,38 @@
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.6</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.4</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1.8</v>
       </c>
-      <c r="H26" t="n">
-        <v>1.78885438199983</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H26">
+        <v>1.7888543819998299</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>5</v>
       </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1642,38 +1662,38 @@
       <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>14.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>17.4068951855292</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>40</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="H27">
+        <v>17.406895185529201</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>40</v>
+      </c>
+      <c r="K27">
         <v>5.5</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>8.5</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>17.5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1683,38 +1703,38 @@
       <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>19.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>37.1250485625168</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H28">
+        <v>37.125048562516803</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
         <v>126</v>
       </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>12.75</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1724,38 +1744,38 @@
       <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>6.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.707106781186548</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="I29">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>7</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>6.25</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>6.5</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>6.75</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1765,38 +1785,38 @@
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>11.4375</v>
       </c>
-      <c r="H30" t="n">
-        <v>27.0307695044</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="H30">
+        <v>27.030769504399998</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>104</v>
       </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>3.5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1806,38 +1826,38 @@
       <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="n">
-        <v>9.85714285714286</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12.2804529154882</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="G31">
+        <v>9.8571428571428594</v>
+      </c>
+      <c r="H31">
+        <v>12.280452915488199</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>33</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>2.5</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>13</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1847,38 +1867,38 @@
       <c r="C32" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>2.82842712474619</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="H32">
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>3</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1888,39 +1908,39 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
-        <v>14.2857142857143</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16.0801563602917</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="G33">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="H33">
+        <v>16.080156360291699</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>47</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>3.5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>8</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>17.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>